--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2950067.583175086</v>
+        <v>-2950734.379295336</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397594.7381667052</v>
+        <v>397594.7381667056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="G11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681793</v>
+        <v>35.89105811681799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.58881163589401</v>
       </c>
       <c r="T11" t="n">
-        <v>17.7601928459344</v>
+        <v>17.76019284593446</v>
       </c>
       <c r="U11" t="n">
-        <v>19.15802075540802</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>79.23187001660773</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7.919809419598364</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827148</v>
+        <v>10.29207558827154</v>
       </c>
       <c r="U12" t="n">
-        <v>32.5748598779371</v>
+        <v>32.57485987793716</v>
       </c>
       <c r="V12" t="n">
-        <v>44.50916219204269</v>
+        <v>35.99613671235124</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396053</v>
+        <v>62.05179937396059</v>
       </c>
       <c r="X12" t="n">
-        <v>82.66266089709399</v>
+        <v>12.6601302364196</v>
       </c>
       <c r="Y12" t="n">
-        <v>82.66266089709399</v>
+        <v>18.73150193097462</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787944</v>
+        <v>30.6907843578795</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512927</v>
+        <v>19.08561116512932</v>
       </c>
       <c r="U13" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V13" t="n">
-        <v>40.45623098139885</v>
+        <v>40.4562309813989</v>
       </c>
       <c r="W13" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519147</v>
+        <v>17.26667120519153</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111736</v>
+        <v>12.48848861111742</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.66266089709399</v>
+        <v>14.32940196544823</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>19.158020755408</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681793</v>
+        <v>35.89105811681799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.58881163589401</v>
       </c>
       <c r="T14" t="n">
-        <v>17.7601928459344</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
     </row>
     <row r="15">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.166798737934687</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827148</v>
+        <v>10.29207558827154</v>
       </c>
       <c r="U15" t="n">
-        <v>32.5748598779371</v>
+        <v>32.57485987793716</v>
       </c>
       <c r="V15" t="n">
-        <v>82.66266089709399</v>
+        <v>43.91594613194957</v>
       </c>
       <c r="W15" t="n">
-        <v>82.66266089709399</v>
+        <v>62.05179937396059</v>
       </c>
       <c r="X15" t="n">
-        <v>82.66266089709399</v>
+        <v>12.6601302364196</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097456</v>
+        <v>18.73150193097462</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.69078435787944</v>
+        <v>30.6907843578795</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512927</v>
+        <v>19.08561116512932</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V16" t="n">
-        <v>40.45623098139885</v>
+        <v>40.4562309813989</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519147</v>
+        <v>17.26667120519153</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111736</v>
+        <v>12.48848861111742</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>67.03582309149687</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709373</v>
       </c>
       <c r="H17" t="n">
         <v>10.73420125866863</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>82.66266089709399</v>
+        <v>14.90099134532539</v>
       </c>
       <c r="J18" t="n">
         <v>51.86424478979236</v>
@@ -1968,16 +1968,16 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R18" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="S18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>14.90099134532549</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>67.03582309149687</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709394</v>
       </c>
       <c r="H20" t="n">
         <v>10.73420125866863</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>14.90099134532549</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>66.76523613511775</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C23" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E23" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G23" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866869</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="24">
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R24" t="n">
-        <v>14.90099134532549</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>66.76523613511782</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
     </row>
     <row r="25">
@@ -2555,16 +2555,16 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E26" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G26" t="n">
         <v>205.980608777416</v>
@@ -2573,7 +2573,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167447</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075044</v>
+        <v>14.3961171707505</v>
       </c>
       <c r="T26" t="n">
-        <v>9.56749838079088</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309214</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X26" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="27">
@@ -2637,19 +2637,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>149.4200515714278</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123127963</v>
+        <v>2.09938112312802</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38216541279358</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720767</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.85910490881702</v>
+        <v>209.83143176984</v>
       </c>
       <c r="X27" t="n">
-        <v>4.46743577127603</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.53880746583104</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273593</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998575</v>
+        <v>10.89291669998581</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625533</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740047954</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973844</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E29" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G29" t="n">
         <v>205.980608777416</v>
@@ -2810,7 +2810,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167447</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075044</v>
+        <v>14.3961171707505</v>
       </c>
       <c r="T29" t="n">
-        <v>9.56749838079088</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30409598309214</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X29" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="30">
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J30" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.099381123127963</v>
+        <v>2.09938112312802</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276440809881</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720767</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881702</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>42.77790914331811</v>
+        <v>100.4449030962321</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.53880746583104</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273593</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89291669998575</v>
+        <v>10.89291669998581</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625533</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X31" t="n">
-        <v>9.073976740047954</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.295794145973844</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>161.2417617096388</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
         <v>124.9266809740327</v>
@@ -3047,7 +3047,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075044</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T32" t="n">
-        <v>9.56749838079088</v>
+        <v>9.567498380790912</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309214</v>
+        <v>37.30409598309217</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
         <v>125.0509851575723</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>68.79992172441635</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042504</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127963</v>
+        <v>2.099381123127992</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2276440809881</v>
+        <v>233.5444443435426</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881702</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.46743577127603</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.53880746583104</v>
+        <v>10.53880746583107</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273593</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998575</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625533</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047954</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973844</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C35" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E35" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582186</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G35" t="n">
-        <v>183.1472519421929</v>
+        <v>183.147251942193</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451313</v>
+        <v>4.865006816451398</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786912</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573434</v>
+        <v>85.20094810573443</v>
       </c>
       <c r="W35" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X35" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>187.1431078809342</v>
+        <v>1.548808577570568</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>43.00894488507065</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359392</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622704</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032314</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591774</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C38" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582186</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G38" t="n">
-        <v>183.1472519421928</v>
+        <v>183.147251942193</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I38" t="n">
-        <v>4.865006816451256</v>
+        <v>4.865006816451398</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786898</v>
+        <v>14.47073914786912</v>
       </c>
       <c r="V38" t="n">
-        <v>85.20094810573428</v>
+        <v>85.20094810573443</v>
       </c>
       <c r="W38" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X38" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.07341798932789</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.548808577570426</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V39" t="n">
-        <v>4.970085411984513</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>31.02574807359386</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>7.378389039747125</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622704</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032314</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591774</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C41" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G41" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I41" t="n">
-        <v>4.865006816451228</v>
+        <v>4.86500681645137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786895</v>
+        <v>14.4707391478691</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573426</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W41" t="n">
-        <v>102.2176283223491</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X41" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.6067319150321</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.548808577570397</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984485</v>
+        <v>119.4374995365354</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359383</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.49523866824085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.97742576622687</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032143</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591757</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C44" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E44" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G44" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451256</v>
+        <v>4.865006816451313</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786898</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573428</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W44" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X44" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y44" t="n">
         <v>146.6067319150322</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>6.044035583042504</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>1.548808577570426</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V45" t="n">
-        <v>4.970085411984513</v>
+        <v>126.786872526803</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359386</v>
+        <v>31.02574807359392</v>
       </c>
       <c r="X45" t="n">
-        <v>160.3795984562468</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>209.8618814687432</v>
+        <v>209.861881468743</v>
       </c>
       <c r="C11" t="n">
-        <v>209.8618814687432</v>
+        <v>209.861881468743</v>
       </c>
       <c r="D11" t="n">
-        <v>209.8618814687432</v>
+        <v>209.861881468743</v>
       </c>
       <c r="E11" t="n">
-        <v>209.8618814687432</v>
+        <v>209.861881468743</v>
       </c>
       <c r="F11" t="n">
-        <v>126.3642441989513</v>
+        <v>126.3642441989512</v>
       </c>
       <c r="G11" t="n">
-        <v>42.86660692915936</v>
+        <v>126.3642441989512</v>
       </c>
       <c r="H11" t="n">
-        <v>42.86660692915936</v>
+        <v>42.86660692915942</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J11" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252144</v>
       </c>
       <c r="K11" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252144</v>
       </c>
       <c r="L11" t="n">
-        <v>55.22196873020033</v>
+        <v>135.1152860209542</v>
       </c>
       <c r="M11" t="n">
-        <v>137.0580030183234</v>
+        <v>216.9513203090772</v>
       </c>
       <c r="N11" t="n">
-        <v>214.5207806827079</v>
+        <v>294.4140979734617</v>
       </c>
       <c r="O11" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="P11" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q11" t="n">
-        <v>320.2255419648574</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883759</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="T11" t="n">
-        <v>312.7110548551088</v>
+        <v>289.8940734047104</v>
       </c>
       <c r="U11" t="n">
-        <v>293.359518738535</v>
+        <v>289.8940734047104</v>
       </c>
       <c r="V11" t="n">
-        <v>293.359518738535</v>
+        <v>289.8940734047104</v>
       </c>
       <c r="W11" t="n">
-        <v>293.359518738535</v>
+        <v>209.861881468743</v>
       </c>
       <c r="X11" t="n">
-        <v>293.359518738535</v>
+        <v>209.861881468743</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.359518738535</v>
+        <v>209.861881468743</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.613012871767519</v>
+        <v>150.4985836863984</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767519</v>
+        <v>150.4985836863984</v>
       </c>
       <c r="D12" t="n">
-        <v>6.613012871767519</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K12" t="n">
-        <v>6.613012871767519</v>
+        <v>45.61006634330793</v>
       </c>
       <c r="L12" t="n">
-        <v>6.613012871767519</v>
+        <v>127.4461006314309</v>
       </c>
       <c r="M12" t="n">
-        <v>85.14254072400681</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="N12" t="n">
-        <v>166.9785750121299</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8146093002529</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="P12" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q12" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="R12" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="S12" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="T12" t="n">
-        <v>314.1495211931093</v>
+        <v>314.1495211931087</v>
       </c>
       <c r="U12" t="n">
-        <v>281.2456223265061</v>
+        <v>281.2456223265056</v>
       </c>
       <c r="V12" t="n">
-        <v>236.2868726375741</v>
+        <v>244.8858882736255</v>
       </c>
       <c r="W12" t="n">
-        <v>173.6082874113513</v>
+        <v>182.2073030474027</v>
       </c>
       <c r="X12" t="n">
-        <v>90.11065014155943</v>
+        <v>169.4192927075849</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.613012871767519</v>
+        <v>150.4985836863984</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.37851777446965</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C13" t="n">
-        <v>71.19216497323757</v>
+        <v>44.42666007053537</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19216497323757</v>
+        <v>103.3020926833523</v>
       </c>
       <c r="E13" t="n">
-        <v>106.8882662126729</v>
+        <v>165.64896924427</v>
       </c>
       <c r="F13" t="n">
-        <v>171.9569091774313</v>
+        <v>230.7176122090283</v>
       </c>
       <c r="G13" t="n">
-        <v>171.9569091774313</v>
+        <v>230.7176122090283</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9569091774313</v>
+        <v>269.2054318268059</v>
       </c>
       <c r="I13" t="n">
-        <v>211.5201255362105</v>
+        <v>269.2054318268059</v>
       </c>
       <c r="J13" t="n">
-        <v>211.5201255362105</v>
+        <v>269.2054318268059</v>
       </c>
       <c r="K13" t="n">
-        <v>211.5201255362105</v>
+        <v>269.2054318268059</v>
       </c>
       <c r="L13" t="n">
-        <v>211.5201255362105</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="M13" t="n">
-        <v>211.5201255362105</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="N13" t="n">
-        <v>211.5201255362105</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="O13" t="n">
-        <v>211.5201255362105</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="P13" t="n">
-        <v>293.3561598243336</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.3561598243336</v>
+        <v>293.3561598243337</v>
       </c>
       <c r="R13" t="n">
         <v>294.8080715736912</v>
@@ -5230,19 +5230,19 @@
         <v>244.5288841767126</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069207</v>
+        <v>161.0312469069208</v>
       </c>
       <c r="V13" t="n">
         <v>120.16636712773</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793806</v>
+        <v>36.66872985793816</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249213</v>
+        <v>19.22764783249217</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.715780315525</v>
+        <v>209.861881468743</v>
       </c>
       <c r="C14" t="n">
-        <v>145.715780315525</v>
+        <v>209.861881468743</v>
       </c>
       <c r="D14" t="n">
-        <v>145.715780315525</v>
+        <v>209.861881468743</v>
       </c>
       <c r="E14" t="n">
-        <v>145.715780315525</v>
+        <v>209.861881468743</v>
       </c>
       <c r="F14" t="n">
-        <v>62.2181430457331</v>
+        <v>209.861881468743</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915936</v>
+        <v>126.3642441989512</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915936</v>
+        <v>42.86660692915942</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J14" t="n">
-        <v>86.50633016252178</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K14" t="n">
-        <v>86.50633016252178</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L14" t="n">
-        <v>135.1152860209546</v>
+        <v>55.22196873020032</v>
       </c>
       <c r="M14" t="n">
-        <v>216.9513203090776</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N14" t="n">
-        <v>294.4140979734621</v>
+        <v>214.5207806827078</v>
       </c>
       <c r="O14" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="P14" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.6506435883759</v>
+        <v>320.225541964857</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S14" t="n">
-        <v>330.6506435883759</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="T14" t="n">
-        <v>312.7110548551088</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="U14" t="n">
-        <v>312.7110548551088</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="V14" t="n">
-        <v>312.7110548551088</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="W14" t="n">
-        <v>312.7110548551088</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="X14" t="n">
-        <v>312.7110548551088</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="Y14" t="n">
-        <v>229.2134175853169</v>
+        <v>224.3360248681857</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="C15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="D15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="E15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="F15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="G15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="H15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="I15" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="J15" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K15" t="n">
-        <v>6.613012871767519</v>
+        <v>45.61006634330793</v>
       </c>
       <c r="L15" t="n">
-        <v>88.44904715989057</v>
+        <v>127.4461006314309</v>
       </c>
       <c r="M15" t="n">
-        <v>170.2850814480136</v>
+        <v>209.2821349195538</v>
       </c>
       <c r="N15" t="n">
-        <v>170.2850814480136</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="O15" t="n">
-        <v>252.1211157361367</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="P15" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q15" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="R15" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="S15" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="T15" t="n">
-        <v>314.1495211931093</v>
+        <v>314.1495211931087</v>
       </c>
       <c r="U15" t="n">
-        <v>281.2456223265061</v>
+        <v>281.2456223265056</v>
       </c>
       <c r="V15" t="n">
-        <v>197.7479850567142</v>
+        <v>236.8860807790817</v>
       </c>
       <c r="W15" t="n">
-        <v>114.2503477869223</v>
+        <v>174.2074955528589</v>
       </c>
       <c r="X15" t="n">
-        <v>30.7527105171304</v>
+        <v>161.4194852130411</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.83200149594397</v>
+        <v>142.4987761918546</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.613012871767519</v>
+        <v>33.37851777446959</v>
       </c>
       <c r="C16" t="n">
-        <v>44.42666007053543</v>
+        <v>71.19216497323745</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3020926833524</v>
+        <v>130.0675975860543</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3020926833524</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3020926833524</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="G16" t="n">
-        <v>138.8999488019076</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="H16" t="n">
-        <v>177.3877684196852</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="I16" t="n">
-        <v>177.3877684196852</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="J16" t="n">
-        <v>177.3877684196852</v>
+        <v>192.4144741469721</v>
       </c>
       <c r="K16" t="n">
-        <v>177.3877684196852</v>
+        <v>212.9720372855683</v>
       </c>
       <c r="L16" t="n">
-        <v>177.3877684196852</v>
+        <v>212.9720372855683</v>
       </c>
       <c r="M16" t="n">
-        <v>177.3877684196852</v>
+        <v>212.9720372855683</v>
       </c>
       <c r="N16" t="n">
-        <v>259.2238027078083</v>
+        <v>212.9720372855683</v>
       </c>
       <c r="O16" t="n">
-        <v>293.3561598243336</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="P16" t="n">
-        <v>293.3561598243336</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.3561598243336</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="R16" t="n">
         <v>294.8080715736912</v>
@@ -5467,19 +5467,19 @@
         <v>244.5288841767126</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069207</v>
+        <v>161.0312469069208</v>
       </c>
       <c r="V16" t="n">
         <v>120.16636712773</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793806</v>
+        <v>36.66872985793816</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249213</v>
+        <v>19.22764783249217</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371741</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051921</v>
+        <v>205.9634208051916</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822519</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932423</v>
+        <v>168.6662302932419</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577624</v>
+        <v>17.45564040577623</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L17" t="n">
-        <v>55.22196873020033</v>
+        <v>55.22196873020032</v>
       </c>
       <c r="M17" t="n">
-        <v>137.0580030183234</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N17" t="n">
-        <v>214.5207806827079</v>
+        <v>214.5207806827078</v>
       </c>
       <c r="O17" t="n">
-        <v>250.7573262976217</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="P17" t="n">
-        <v>250.7573262976217</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7573262976217</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="R17" t="n">
-        <v>250.7573262976217</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="S17" t="n">
-        <v>250.7573262976217</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="T17" t="n">
-        <v>315.519837078405</v>
+        <v>250.7573262976216</v>
       </c>
       <c r="U17" t="n">
-        <v>315.519837078405</v>
+        <v>315.5198370784045</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840827</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737903</v>
+        <v>305.0422344737898</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930496</v>
+        <v>258.4542133930491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="C18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="D18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="E18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="F18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="G18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="H18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="I18" t="n">
-        <v>59.00113892206283</v>
+        <v>59.00113892206282</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K18" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L18" t="n">
-        <v>88.44904715989057</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="M18" t="n">
-        <v>88.44904715989057</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="N18" t="n">
-        <v>170.2850814480136</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O18" t="n">
-        <v>252.1211157361367</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P18" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q18" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="R18" t="n">
-        <v>241.0479198710663</v>
+        <v>241.047919871066</v>
       </c>
       <c r="S18" t="n">
-        <v>157.5502826012744</v>
+        <v>241.047919871066</v>
       </c>
       <c r="T18" t="n">
-        <v>142.4987761918547</v>
+        <v>241.047919871066</v>
       </c>
       <c r="U18" t="n">
-        <v>142.4987761918547</v>
+        <v>157.5502826012742</v>
       </c>
       <c r="V18" t="n">
-        <v>142.4987761918547</v>
+        <v>157.5502826012742</v>
       </c>
       <c r="W18" t="n">
-        <v>142.4987761918547</v>
+        <v>157.5502826012742</v>
       </c>
       <c r="X18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.4987761918547</v>
+        <v>74.05264533148241</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371739</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051918</v>
+        <v>205.9634208051916</v>
       </c>
       <c r="D20" t="n">
-        <v>204.338437882252</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932424</v>
+        <v>168.6662302932418</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755688</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G20" t="n">
-        <v>17.45564040577624</v>
+        <v>17.45564040577623</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252144</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252144</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252144</v>
       </c>
       <c r="L20" t="n">
-        <v>55.22196873020033</v>
+        <v>135.1152860209542</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0580030183234</v>
+        <v>216.9513203090772</v>
       </c>
       <c r="N20" t="n">
-        <v>214.5207806827079</v>
+        <v>294.4140979734617</v>
       </c>
       <c r="O20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="P20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="T20" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="U20" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737901</v>
+        <v>305.0422344737898</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>309.4940507314386</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C21" t="n">
-        <v>309.4940507314386</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D21" t="n">
-        <v>225.9964134616467</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E21" t="n">
-        <v>225.9964134616467</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F21" t="n">
-        <v>225.9964134616467</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G21" t="n">
-        <v>142.4987761918547</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H21" t="n">
-        <v>142.4987761918547</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I21" t="n">
-        <v>59.00113892206283</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989044</v>
       </c>
       <c r="M21" t="n">
-        <v>85.14254072400681</v>
+        <v>88.44904715989044</v>
       </c>
       <c r="N21" t="n">
-        <v>166.9785750121299</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q21" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="R21" t="n">
-        <v>324.5455571408583</v>
+        <v>324.5455571408578</v>
       </c>
       <c r="S21" t="n">
-        <v>309.4940507314386</v>
+        <v>241.047919871066</v>
       </c>
       <c r="T21" t="n">
-        <v>309.4940507314386</v>
+        <v>157.5502826012742</v>
       </c>
       <c r="U21" t="n">
-        <v>309.4940507314386</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="V21" t="n">
-        <v>309.4940507314386</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="W21" t="n">
-        <v>309.4940507314386</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="X21" t="n">
-        <v>309.4940507314386</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="Y21" t="n">
-        <v>309.4940507314386</v>
+        <v>90.1106501415593</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>205.9634208051918</v>
       </c>
       <c r="D23" t="n">
-        <v>204.3384378822516</v>
+        <v>204.338437882252</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932419</v>
+        <v>168.6662302932421</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755682</v>
+        <v>100.9532776755684</v>
       </c>
       <c r="G23" t="n">
-        <v>17.4556404057763</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H23" t="n">
         <v>6.613012871767519</v>
       </c>
       <c r="I23" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252178</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252178</v>
       </c>
       <c r="K23" t="n">
-        <v>6.613012871767519</v>
+        <v>86.50633016252178</v>
       </c>
       <c r="L23" t="n">
-        <v>55.22196873020033</v>
+        <v>135.1152860209546</v>
       </c>
       <c r="M23" t="n">
-        <v>137.0580030183234</v>
+        <v>216.9513203090776</v>
       </c>
       <c r="N23" t="n">
-        <v>214.5207806827079</v>
+        <v>294.4140979734621</v>
       </c>
       <c r="O23" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="P23" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7573262976217</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U23" t="n">
-        <v>315.519837078405</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V23" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840827</v>
+        <v>328.9001008840826</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737901</v>
       </c>
       <c r="Y23" t="n">
         <v>258.4542133930494</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>309.4940507314386</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C24" t="n">
-        <v>309.4940507314386</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D24" t="n">
-        <v>309.4940507314386</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E24" t="n">
-        <v>225.9964134616467</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>142.4987761918547</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
-        <v>142.4987761918547</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H24" t="n">
-        <v>59.00113892206283</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I24" t="n">
-        <v>59.00113892206283</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J24" t="n">
         <v>6.613012871767519</v>
       </c>
       <c r="K24" t="n">
-        <v>45.61006634330793</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>127.446100631431</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M24" t="n">
-        <v>209.282134919554</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N24" t="n">
         <v>248.8146093002529</v>
@@ -6090,28 +6090,28 @@
         <v>324.5455571408583</v>
       </c>
       <c r="R24" t="n">
-        <v>309.4940507314386</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="S24" t="n">
-        <v>309.4940507314386</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="T24" t="n">
-        <v>309.4940507314386</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="U24" t="n">
-        <v>309.4940507314386</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="V24" t="n">
-        <v>309.4940507314386</v>
+        <v>257.1059246811433</v>
       </c>
       <c r="W24" t="n">
-        <v>309.4940507314386</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="X24" t="n">
-        <v>309.4940507314386</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="Y24" t="n">
-        <v>309.4940507314386</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123529</v>
+        <v>886.241650212354</v>
       </c>
       <c r="D26" t="n">
-        <v>760.053083571916</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654094</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302387</v>
+        <v>407.5407559302394</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429498</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144451</v>
+        <v>64.0733236914446</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8138854154936</v>
+        <v>171.8138854154935</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3929389292101</v>
+        <v>377.39293892921</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691555</v>
+        <v>636.7189186691554</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707755</v>
+        <v>930.398731570776</v>
       </c>
       <c r="N26" t="n">
         <v>1218.578533116673</v>
@@ -6242,34 +6242,34 @@
         <v>1465.532102613099</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.028607199423</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.223060293144</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437154</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941446</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.55325716287</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129443</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583021</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161231</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.011215033442</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.859610235204</v>
+        <v>1187.859610235206</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>671.255987360557</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="C27" t="n">
-        <v>671.255987360557</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="D27" t="n">
-        <v>520.3266423389127</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="E27" t="n">
-        <v>346.7634384603272</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="F27" t="n">
-        <v>186.3357221775713</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09517858874309</v>
+        <v>163.0376771054983</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028351</v>
+        <v>75.09223206028352</v>
       </c>
       <c r="L27" t="n">
         <v>193.815125322684</v>
@@ -6327,28 +6327,28 @@
         <v>795.6502670868736</v>
       </c>
       <c r="R27" t="n">
-        <v>795.6502670868736</v>
+        <v>659.9751947401156</v>
       </c>
       <c r="S27" t="n">
-        <v>795.6502670868736</v>
+        <v>659.9751947401156</v>
       </c>
       <c r="T27" t="n">
-        <v>793.529680093815</v>
+        <v>657.854607747057</v>
       </c>
       <c r="U27" t="n">
-        <v>768.9012301819023</v>
+        <v>633.2261578351442</v>
       </c>
       <c r="V27" t="n">
-        <v>740.8169450837128</v>
+        <v>390.1464397387783</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4138088121804</v>
+        <v>178.1954985571218</v>
       </c>
       <c r="X27" t="n">
-        <v>681.901247427053</v>
+        <v>173.6829371719944</v>
       </c>
       <c r="Y27" t="n">
-        <v>671.255987360557</v>
+        <v>163.0376771054983</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C28" t="n">
-        <v>82.0195933080031</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0057934413121</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E28" t="n">
-        <v>149.0057934413121</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F28" t="n">
-        <v>149.0057934413121</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G28" t="n">
-        <v>192.7144170803594</v>
+        <v>69.59567024290874</v>
       </c>
       <c r="H28" t="n">
-        <v>192.7144170803594</v>
+        <v>69.59567024290874</v>
       </c>
       <c r="I28" t="n">
-        <v>192.7144170803594</v>
+        <v>117.26965412218</v>
       </c>
       <c r="J28" t="n">
-        <v>192.7144170803594</v>
+        <v>117.26965412218</v>
       </c>
       <c r="K28" t="n">
-        <v>192.7144170803594</v>
+        <v>117.26965412218</v>
       </c>
       <c r="L28" t="n">
-        <v>192.7144170803594</v>
+        <v>117.26965412218</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7419715358033</v>
+        <v>117.26965412218</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7419715358033</v>
+        <v>117.26965412218</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7419715358033</v>
+        <v>117.26965412218</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098074</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482057</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659329</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414325</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W28" t="n">
-        <v>49.59999766553278</v>
+        <v>49.59999766553292</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477727</v>
+        <v>40.43436459477735</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874309</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.989143861834</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123547</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719176</v>
+        <v>760.0530835719164</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654109</v>
+        <v>599.8172922654097</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302403</v>
+        <v>407.540755930239</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429514</v>
+        <v>199.4795349429501</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144454</v>
+        <v>64.0733236914446</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J29" t="n">
         <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292101</v>
+        <v>377.39293892921</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691556</v>
+        <v>636.7189186691554</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707764</v>
+        <v>930.398731570776</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.578533116673</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.5321026131</v>
+        <v>1465.532102613101</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199424</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
@@ -6503,10 +6503,10 @@
         <v>1507.432665161233</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.011215033444</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="C30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="D30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="E30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="F30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="G30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="H30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
       <c r="I30" t="n">
-        <v>88.48330463903842</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K30" t="n">
-        <v>75.09223206028352</v>
+        <v>75.09223206028354</v>
       </c>
       <c r="L30" t="n">
-        <v>193.815125322684</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M30" t="n">
         <v>377.1138061802538</v>
@@ -6564,28 +6564,28 @@
         <v>795.6502670868736</v>
       </c>
       <c r="R30" t="n">
-        <v>659.9751947401156</v>
+        <v>795.6502670868736</v>
       </c>
       <c r="S30" t="n">
-        <v>466.5704652140788</v>
+        <v>795.6502670868736</v>
       </c>
       <c r="T30" t="n">
-        <v>464.4498782210202</v>
+        <v>793.5296800938149</v>
       </c>
       <c r="U30" t="n">
-        <v>224.8259953109312</v>
+        <v>768.9012301819022</v>
       </c>
       <c r="V30" t="n">
-        <v>196.7417102127416</v>
+        <v>740.8169450837125</v>
       </c>
       <c r="W30" t="n">
-        <v>142.3385739412093</v>
+        <v>471.4183758140039</v>
       </c>
       <c r="X30" t="n">
-        <v>99.12856470553443</v>
+        <v>369.9588777370017</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.48330463903842</v>
+        <v>144.3181846723294</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09517858874311</v>
+        <v>103.0813787220521</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09517858874311</v>
+        <v>103.0813787220521</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09517858874311</v>
+        <v>103.0813787220521</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09517858874311</v>
+        <v>103.0813787220521</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09517858874311</v>
+        <v>149.6799658603217</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09517858874311</v>
+        <v>149.6799658603217</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09517858874311</v>
+        <v>241.7392205686384</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09517858874311</v>
+        <v>241.7392205686384</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09517858874311</v>
+        <v>241.7392205686384</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O31" t="n">
-        <v>36.09517858874311</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5203561027683</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098074</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0136820482057</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659329</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414326</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W31" t="n">
-        <v>49.5999976655328</v>
+        <v>49.59999766553293</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477729</v>
+        <v>40.43436459477736</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123543</v>
+        <v>886.2416502123539</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719172</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654105</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302399</v>
+        <v>407.5407559302395</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4795349429503</v>
+        <v>199.4795349429506</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144454</v>
+        <v>64.07332369144478</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154936</v>
+        <v>171.8138854154943</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292101</v>
+        <v>377.3929389292107</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691555</v>
+        <v>636.7189186691562</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707762</v>
+        <v>930.3987315707768</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.578533116673</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O32" t="n">
         <v>1465.5321026131</v>
@@ -6728,7 +6728,7 @@
         <v>1790.217396941448</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.553257162872</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U32" t="n">
         <v>1742.872352129445</v>
@@ -6740,10 +6740,10 @@
         <v>1507.432665161233</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033444</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.5900490174465</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09223206028352</v>
+        <v>75.09223206028354</v>
       </c>
       <c r="L33" t="n">
-        <v>193.815125322684</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M33" t="n">
         <v>377.1138061802538</v>
@@ -6798,31 +6798,31 @@
         <v>801.7553535343912</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.6502670868736</v>
+        <v>801.7553535343912</v>
       </c>
       <c r="R33" t="n">
-        <v>659.9751947401156</v>
+        <v>801.7553535343912</v>
       </c>
       <c r="S33" t="n">
-        <v>659.9751947401156</v>
+        <v>801.7553535343912</v>
       </c>
       <c r="T33" t="n">
-        <v>657.8546077470571</v>
+        <v>799.6347665413326</v>
       </c>
       <c r="U33" t="n">
-        <v>418.2307248369681</v>
+        <v>563.7312874064411</v>
       </c>
       <c r="V33" t="n">
-        <v>175.1510067406022</v>
+        <v>320.6515693100752</v>
       </c>
       <c r="W33" t="n">
-        <v>120.7478704690698</v>
+        <v>51.25300004036648</v>
       </c>
       <c r="X33" t="n">
-        <v>116.2353090839425</v>
+        <v>46.74043865523915</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5900490174465</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H34" t="n">
-        <v>82.69376572701282</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3677496062841</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3677496062841</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K34" t="n">
-        <v>130.3677496062841</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7419715358033</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7419715358033</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7419715358033</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7419715358033</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358033</v>
+        <v>175.9576768329189</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358033</v>
+        <v>261.1792922659539</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098074</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0136820482057</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4371339659329</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V34" t="n">
         <v>127.8477031414326</v>
       </c>
       <c r="W34" t="n">
-        <v>49.5999976655328</v>
+        <v>49.59999766553288</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477729</v>
+        <v>40.43436459477734</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09517858874311</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672756</v>
+        <v>856.9281533672754</v>
       </c>
       <c r="C35" t="n">
-        <v>741.244656521052</v>
+        <v>741.2446565210516</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838706</v>
+        <v>638.1200866838701</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806195</v>
+        <v>500.948292180619</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487045</v>
+        <v>331.735752648704</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646713</v>
+        <v>146.7385284646707</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642136</v>
+        <v>34.39631401642146</v>
       </c>
       <c r="I35" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
-        <v>187.805895810597</v>
+        <v>105.4810828512033</v>
       </c>
       <c r="K35" t="n">
-        <v>415.9899725911844</v>
+        <v>333.6651596317906</v>
       </c>
       <c r="L35" t="n">
-        <v>697.9209755980007</v>
+        <v>615.5961626386069</v>
       </c>
       <c r="M35" t="n">
-        <v>780.8837646181088</v>
+        <v>698.5589516587149</v>
       </c>
       <c r="N35" t="n">
-        <v>1009.343776471482</v>
+        <v>1009.343776471483</v>
       </c>
       <c r="O35" t="n">
-        <v>1045.580322086396</v>
+        <v>1045.580322086397</v>
       </c>
       <c r="P35" t="n">
-        <v>1265.681849939591</v>
+        <v>1265.681849939592</v>
       </c>
       <c r="Q35" t="n">
-        <v>1411.481326300182</v>
+        <v>1411.481326300183</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="S35" t="n">
         <v>1460.975085978892</v>
@@ -6980,7 +6980,7 @@
         <v>1144.822230932375</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373926</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C36" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D36" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E36" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J36" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K36" t="n">
-        <v>68.47921918851601</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L36" t="n">
-        <v>187.2021124509165</v>
+        <v>187.2021124509166</v>
       </c>
       <c r="M36" t="n">
-        <v>370.5007933084863</v>
+        <v>370.5007933084864</v>
       </c>
       <c r="N36" t="n">
         <v>577.0707343929882</v>
@@ -7038,28 +7038,28 @@
         <v>789.037254215106</v>
       </c>
       <c r="R36" t="n">
-        <v>653.3621818683481</v>
+        <v>789.037254215106</v>
       </c>
       <c r="S36" t="n">
-        <v>653.3621818683481</v>
+        <v>789.037254215106</v>
       </c>
       <c r="T36" t="n">
-        <v>653.3621818683481</v>
+        <v>789.037254215106</v>
       </c>
       <c r="U36" t="n">
-        <v>464.3287395643741</v>
+        <v>787.4728011064489</v>
       </c>
       <c r="V36" t="n">
-        <v>221.2490214680082</v>
+        <v>744.0294224346603</v>
       </c>
       <c r="W36" t="n">
-        <v>189.9098819997315</v>
+        <v>474.6308531649516</v>
       </c>
       <c r="X36" t="n">
-        <v>189.9098819997315</v>
+        <v>255.1228587816479</v>
       </c>
       <c r="Y36" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H37" t="n">
-        <v>98.68577612211618</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I37" t="n">
-        <v>98.68577612211618</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J37" t="n">
-        <v>98.68577612211618</v>
+        <v>144.146443692163</v>
       </c>
       <c r="K37" t="n">
-        <v>98.68577612211618</v>
+        <v>144.146443692163</v>
       </c>
       <c r="L37" t="n">
-        <v>98.68577612211618</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="M37" t="n">
-        <v>98.68577612211618</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="N37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="O37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086455</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961979</v>
       </c>
       <c r="W37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.48216571697559</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672748</v>
+        <v>856.9281533672757</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210516</v>
+        <v>741.2446565210523</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838701</v>
+        <v>638.1200866838706</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806189</v>
+        <v>500.948292180619</v>
       </c>
       <c r="F38" t="n">
         <v>331.735752648704</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646708</v>
+        <v>146.7385284646707</v>
       </c>
       <c r="H38" t="n">
-        <v>34.39631401642129</v>
+        <v>34.39631401642146</v>
       </c>
       <c r="I38" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J38" t="n">
-        <v>187.805895810597</v>
+        <v>105.4810828512036</v>
       </c>
       <c r="K38" t="n">
-        <v>415.9899725911844</v>
+        <v>333.6651596317909</v>
       </c>
       <c r="L38" t="n">
-        <v>697.9209755980007</v>
+        <v>382.2741154902237</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.205811766492</v>
+        <v>698.5589516587152</v>
       </c>
       <c r="N38" t="n">
-        <v>1204.549693085481</v>
+        <v>776.0217293230996</v>
       </c>
       <c r="O38" t="n">
-        <v>1474.108285848778</v>
+        <v>1045.580322086397</v>
       </c>
       <c r="P38" t="n">
-        <v>1474.108285848778</v>
+        <v>1265.681849939592</v>
       </c>
       <c r="Q38" t="n">
-        <v>1474.108285848778</v>
+        <v>1411.481326300183</v>
       </c>
       <c r="R38" t="n">
-        <v>1474.108285848778</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="S38" t="n">
-        <v>1474.108285848778</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T38" t="n">
-        <v>1474.108285848778</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U38" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V38" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.179684256907</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373916</v>
+        <v>996.7346229373927</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>751.1133733432387</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C39" t="n">
-        <v>561.7010990762024</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D39" t="n">
-        <v>400.9209828372341</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E39" t="n">
-        <v>227.3577789586485</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F39" t="n">
-        <v>66.93006267589263</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G39" t="n">
-        <v>66.93006267589263</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H39" t="n">
-        <v>66.93006267589263</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I39" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J39" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K39" t="n">
-        <v>68.47921918851598</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L39" t="n">
-        <v>187.2021124509165</v>
+        <v>187.2021124509166</v>
       </c>
       <c r="M39" t="n">
-        <v>370.5007933084863</v>
+        <v>370.5007933084864</v>
       </c>
       <c r="N39" t="n">
         <v>577.0707343929882</v>
@@ -7284,19 +7284,19 @@
         <v>789.037254215106</v>
       </c>
       <c r="U39" t="n">
-        <v>787.4728011064491</v>
+        <v>549.413371305017</v>
       </c>
       <c r="V39" t="n">
-        <v>782.4525128115152</v>
+        <v>306.3336532086511</v>
       </c>
       <c r="W39" t="n">
-        <v>751.1133733432387</v>
+        <v>36.9350839389424</v>
       </c>
       <c r="X39" t="n">
-        <v>751.1133733432387</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y39" t="n">
-        <v>751.1133733432387</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E40" t="n">
-        <v>122.5448330652564</v>
+        <v>122.5448330652563</v>
       </c>
       <c r="F40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="G40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="H40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="I40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="J40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="K40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="L40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="M40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="N40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="O40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="P40" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="R40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="S40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898818</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086422</v>
+        <v>94.19130841086455</v>
       </c>
       <c r="V40" t="n">
-        <v>84.6658743896196</v>
+        <v>84.66587438961979</v>
       </c>
       <c r="W40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672749</v>
+        <v>856.9281533672759</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210516</v>
+        <v>741.2446565210524</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838702</v>
+        <v>638.1200866838709</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806193</v>
+        <v>500.9482921806199</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487049</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646713</v>
+        <v>146.7385284646716</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642126</v>
+        <v>34.39631401642144</v>
       </c>
       <c r="I41" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J41" t="n">
-        <v>187.805895810597</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K41" t="n">
-        <v>415.9899725911845</v>
+        <v>415.9899725911843</v>
       </c>
       <c r="L41" t="n">
-        <v>697.920975598001</v>
+        <v>697.9209755980005</v>
       </c>
       <c r="M41" t="n">
-        <v>780.883764618109</v>
+        <v>1014.205811766492</v>
       </c>
       <c r="N41" t="n">
-        <v>1091.668589430877</v>
+        <v>1204.549693085483</v>
       </c>
       <c r="O41" t="n">
-        <v>1127.905135045791</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="P41" t="n">
-        <v>1348.006662898986</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="Q41" t="n">
-        <v>1411.481326300181</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="R41" t="n">
-        <v>1452.622218711062</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S41" t="n">
-        <v>1460.975085978891</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T41" t="n">
-        <v>1474.108285848778</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U41" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V41" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256907</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X41" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373918</v>
+        <v>996.7346229373929</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>552.8853601453533</v>
+        <v>218.8944399840119</v>
       </c>
       <c r="C42" t="n">
-        <v>363.473085878317</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="D42" t="n">
-        <v>363.473085878317</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="E42" t="n">
-        <v>189.9098819997315</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F42" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G42" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H42" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J42" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K42" t="n">
-        <v>68.47921918851598</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L42" t="n">
-        <v>187.2021124509165</v>
+        <v>187.2021124509166</v>
       </c>
       <c r="M42" t="n">
-        <v>370.5007933084863</v>
+        <v>370.5007933084864</v>
       </c>
       <c r="N42" t="n">
         <v>577.0707343929882</v>
@@ -7521,19 +7521,19 @@
         <v>789.037254215106</v>
       </c>
       <c r="U42" t="n">
-        <v>787.4728011064491</v>
+        <v>787.472801106449</v>
       </c>
       <c r="V42" t="n">
-        <v>782.4525128115152</v>
+        <v>666.8288621806556</v>
       </c>
       <c r="W42" t="n">
-        <v>751.1133733432387</v>
+        <v>397.4302929109469</v>
       </c>
       <c r="X42" t="n">
-        <v>751.1133733432387</v>
+        <v>397.4302929109469</v>
       </c>
       <c r="Y42" t="n">
-        <v>731.4212130722883</v>
+        <v>397.4302929109469</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="C43" t="n">
-        <v>29.48216571697557</v>
+        <v>58.11263628970184</v>
       </c>
       <c r="D43" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="E43" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="F43" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="H43" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="I43" t="n">
-        <v>33.03958171469358</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="J43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="K43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="L43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="M43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="N43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="O43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="P43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="R43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898812</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086417</v>
+        <v>94.19130841086449</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961957</v>
+        <v>84.66587438961976</v>
       </c>
       <c r="W43" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X43" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672753</v>
+        <v>856.928153367276</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210519</v>
+        <v>741.2446565210528</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E44" t="n">
-        <v>500.948292180619</v>
+        <v>500.94829218062</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487041</v>
+        <v>331.735752648705</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646709</v>
+        <v>146.7385284646718</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642129</v>
+        <v>34.39631401642138</v>
       </c>
       <c r="I44" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J44" t="n">
-        <v>187.805895810597</v>
+        <v>100.3431124834064</v>
       </c>
       <c r="K44" t="n">
-        <v>415.9899725911844</v>
+        <v>100.3431124834064</v>
       </c>
       <c r="L44" t="n">
-        <v>464.5989284496172</v>
+        <v>148.9520683418392</v>
       </c>
       <c r="M44" t="n">
-        <v>780.8837646181089</v>
+        <v>465.2369045103308</v>
       </c>
       <c r="N44" t="n">
-        <v>1009.34377647148</v>
+        <v>776.0217293230987</v>
       </c>
       <c r="O44" t="n">
-        <v>1045.580322086394</v>
+        <v>1045.580322086396</v>
       </c>
       <c r="P44" t="n">
-        <v>1265.681849939589</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="Q44" t="n">
-        <v>1411.481326300181</v>
+        <v>1411.481326300183</v>
       </c>
       <c r="R44" t="n">
-        <v>1452.622218711062</v>
+        <v>1452.622218711065</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978891</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T44" t="n">
-        <v>1474.108285848778</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U44" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V44" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.734622937392</v>
+        <v>996.7346229373928</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>363.473085878317</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="C45" t="n">
-        <v>363.473085878317</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="D45" t="n">
-        <v>363.473085878317</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="E45" t="n">
-        <v>189.9098819997315</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="F45" t="n">
-        <v>29.48216571697557</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="G45" t="n">
-        <v>29.48216571697557</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="H45" t="n">
-        <v>29.48216571697557</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="I45" t="n">
-        <v>29.48216571697557</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="J45" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K45" t="n">
-        <v>68.47921918851598</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L45" t="n">
-        <v>187.2021124509165</v>
+        <v>187.2021124509166</v>
       </c>
       <c r="M45" t="n">
-        <v>370.5007933084863</v>
+        <v>370.5007933084864</v>
       </c>
       <c r="N45" t="n">
         <v>577.0707343929882</v>
@@ -7749,28 +7749,28 @@
         <v>789.037254215106</v>
       </c>
       <c r="R45" t="n">
-        <v>789.037254215106</v>
+        <v>653.3621818683481</v>
       </c>
       <c r="S45" t="n">
-        <v>789.037254215106</v>
+        <v>459.9574523423113</v>
       </c>
       <c r="T45" t="n">
-        <v>789.037254215106</v>
+        <v>242.8414323510764</v>
       </c>
       <c r="U45" t="n">
-        <v>787.4728011064491</v>
+        <v>241.2769792424193</v>
       </c>
       <c r="V45" t="n">
-        <v>782.4525128115152</v>
+        <v>113.2094312355476</v>
       </c>
       <c r="W45" t="n">
-        <v>751.1133733432387</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="X45" t="n">
-        <v>589.1137789429894</v>
+        <v>81.87029176727091</v>
       </c>
       <c r="Y45" t="n">
-        <v>363.473085878317</v>
+        <v>81.87029176727091</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="C46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="D46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="E46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="F46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="G46" t="n">
-        <v>29.48216571697557</v>
+        <v>78.50024928474093</v>
       </c>
       <c r="H46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="I46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="J46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="K46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="L46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="M46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="N46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O46" t="n">
-        <v>29.48216571697557</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086422</v>
+        <v>94.19130841086438</v>
       </c>
       <c r="V46" t="n">
-        <v>84.6658743896196</v>
+        <v>84.6658743896197</v>
       </c>
       <c r="W46" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="X46" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.48216571697557</v>
+        <v>29.4821657169756</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815849</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3824293501764</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M12" t="n">
-        <v>195.9494540318883</v>
+        <v>156.5584909293221</v>
       </c>
       <c r="N12" t="n">
-        <v>184.6200133257551</v>
+        <v>184.620013325755</v>
       </c>
       <c r="O12" t="n">
-        <v>203.3156892245185</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P12" t="n">
-        <v>203.321939772361</v>
+        <v>120.659278875267</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8933,7 +8933,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9825104815849</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>203.0450902472704</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M15" t="n">
-        <v>199.28935952268</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N15" t="n">
-        <v>101.9573524286612</v>
+        <v>141.8891447323973</v>
       </c>
       <c r="O15" t="n">
-        <v>203.3156892245185</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P15" t="n">
-        <v>199.9820342815693</v>
+        <v>120.659278875267</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9170,7 +9170,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N17" t="n">
         <v>283.4008070189657</v>
@@ -9246,19 +9246,19 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L18" t="n">
-        <v>203.0450902472704</v>
+        <v>199.7051847564786</v>
       </c>
       <c r="M18" t="n">
-        <v>116.626698625586</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N18" t="n">
-        <v>184.6200133257551</v>
+        <v>101.9573524286612</v>
       </c>
       <c r="O18" t="n">
-        <v>203.3156892245185</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P18" t="n">
-        <v>199.9820342815693</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9407,7 +9407,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104412</v>
       </c>
       <c r="N20" t="n">
         <v>283.4008070189657</v>
@@ -9483,19 +9483,19 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3824293501764</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M21" t="n">
-        <v>195.9494540318883</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N21" t="n">
-        <v>184.6200133257551</v>
+        <v>181.2801078349634</v>
       </c>
       <c r="O21" t="n">
-        <v>203.3156892245185</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P21" t="n">
-        <v>203.321939772361</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L24" t="n">
         <v>203.0450902472704</v>
@@ -9726,7 +9726,7 @@
         <v>199.28935952268</v>
       </c>
       <c r="N24" t="n">
-        <v>141.8891447323974</v>
+        <v>181.2801078349635</v>
       </c>
       <c r="O24" t="n">
         <v>120.6530283274245</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.77179527768828</v>
+        <v>169.4344561747823</v>
       </c>
       <c r="C11" t="n">
         <v>145.5527131781278</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391762</v>
+        <v>133.1193754391763</v>
       </c>
       <c r="E11" t="n">
-        <v>166.8261278585851</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F11" t="n">
-        <v>115.8838045398684</v>
+        <v>115.8838045398686</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5106423454655</v>
+        <v>214.1733032425595</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041342</v>
+        <v>59.5821827070404</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589396</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>26.33876969282763</v>
+        <v>45.49679044823571</v>
       </c>
       <c r="V11" t="n">
         <v>116.226999406101</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2436796227158</v>
+        <v>54.01180960610813</v>
       </c>
       <c r="X11" t="n">
         <v>155.1299300916551</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.6327832153988</v>
+        <v>177.6327832153989</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499591</v>
+        <v>1.340816169499762</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.995261989190283</v>
+        <v>2.995261989190453</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.77179527768828</v>
+        <v>155.1050542093341</v>
       </c>
       <c r="C14" t="n">
         <v>145.5527131781278</v>
       </c>
       <c r="D14" t="n">
-        <v>133.1193754391762</v>
+        <v>133.1193754391763</v>
       </c>
       <c r="E14" t="n">
-        <v>166.8261278585851</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F14" t="n">
-        <v>115.8838045398684</v>
+        <v>198.5464654369625</v>
       </c>
       <c r="G14" t="n">
-        <v>195.0152824871515</v>
+        <v>131.5106423454657</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041342</v>
+        <v>59.5821827070404</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589395</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>17.76019284593446</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823566</v>
+        <v>45.49679044823571</v>
       </c>
       <c r="V14" t="n">
         <v>116.226999406101</v>
       </c>
       <c r="W14" t="n">
-        <v>133.2436796227158</v>
+        <v>133.2436796227159</v>
       </c>
       <c r="X14" t="n">
         <v>155.1299300916551</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.97012231830485</v>
+        <v>94.97012231830502</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499591</v>
+        <v>1.340816169499762</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.995261989190283</v>
+        <v>2.995261989190453</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1276615.589792575</v>
+        <v>1276615.589792574</v>
       </c>
     </row>
     <row r="6">
@@ -26323,7 +26323,7 @@
         <v>170997.7700296079</v>
       </c>
       <c r="F2" t="n">
-        <v>170997.7700296079</v>
+        <v>170997.7700296078</v>
       </c>
       <c r="G2" t="n">
         <v>198836.6734931706</v>
@@ -26332,13 +26332,13 @@
         <v>198836.6734931706</v>
       </c>
       <c r="I2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="J2" t="n">
-        <v>198836.6734931704</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="K2" t="n">
-        <v>198836.6734931704</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="L2" t="n">
         <v>198836.6734931705</v>
@@ -26347,10 +26347,10 @@
         <v>198836.6734931708</v>
       </c>
       <c r="N2" t="n">
-        <v>198836.6734931707</v>
+        <v>198836.6734931708</v>
       </c>
       <c r="O2" t="n">
-        <v>198836.6734931707</v>
+        <v>198836.6734931708</v>
       </c>
       <c r="P2" t="n">
         <v>198836.6734931707</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438668</v>
+        <v>272100.1210438667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817848</v>
+        <v>18266.68546817844</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818329</v>
+        <v>65067.86905818313</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>393609.1285253837</v>
       </c>
       <c r="F4" t="n">
-        <v>393609.1285253838</v>
+        <v>393609.1285253836</v>
       </c>
       <c r="G4" t="n">
         <v>464139.4248418898</v>
@@ -26442,22 +26442,22 @@
         <v>465554.6357675862</v>
       </c>
       <c r="K4" t="n">
-        <v>465554.6357675863</v>
+        <v>465554.6357675862</v>
       </c>
       <c r="L4" t="n">
         <v>465554.6357675862</v>
       </c>
       <c r="M4" t="n">
+        <v>465183.335866207</v>
+      </c>
+      <c r="N4" t="n">
         <v>465183.3358662071</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>465183.335866207</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>465183.3358662071</v>
-      </c>
-      <c r="P4" t="n">
-        <v>465183.335866207</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24501.91760808067</v>
+        <v>24501.91760808066</v>
       </c>
       <c r="F5" t="n">
-        <v>24501.91760808067</v>
+        <v>24501.91760808066</v>
       </c>
       <c r="G5" t="n">
+        <v>35557.88579942161</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35557.88579942161</v>
+      </c>
+      <c r="I5" t="n">
         <v>35557.88579942162</v>
       </c>
-      <c r="H5" t="n">
-        <v>35557.88579942162</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35557.88579942161</v>
-      </c>
       <c r="J5" t="n">
-        <v>47597.11518397224</v>
+        <v>47597.11518397226</v>
       </c>
       <c r="K5" t="n">
         <v>47597.11518397227</v>
@@ -26503,13 +26503,13 @@
         <v>44490.80287720932</v>
       </c>
       <c r="N5" t="n">
-        <v>44490.80287720931</v>
+        <v>44490.80287720932</v>
       </c>
       <c r="O5" t="n">
         <v>44490.80287720932</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720931</v>
+        <v>44490.80287720934</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334177.5770700519</v>
+        <v>-334182.0434542571</v>
       </c>
       <c r="C6" t="n">
-        <v>-334177.5770700519</v>
+        <v>-334182.0434542571</v>
       </c>
       <c r="D6" t="n">
-        <v>-334177.5770700519</v>
+        <v>-334182.0434542571</v>
       </c>
       <c r="E6" t="n">
-        <v>-519213.3971477232</v>
+        <v>-519522.7182973182</v>
       </c>
       <c r="F6" t="n">
-        <v>-247113.2761038565</v>
+        <v>-247422.5972534516</v>
       </c>
       <c r="G6" t="n">
-        <v>-406069.1510245134</v>
+        <v>-406069.1510245133</v>
       </c>
       <c r="H6" t="n">
+        <v>-300860.6371481408</v>
+      </c>
+      <c r="I6" t="n">
         <v>-300860.6371481409</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-300860.6371481408</v>
       </c>
       <c r="J6" t="n">
         <v>-475805.8436022257</v>
       </c>
       <c r="K6" t="n">
-        <v>-314315.0774583882</v>
+        <v>-314315.077458388</v>
       </c>
       <c r="L6" t="n">
         <v>-419523.5913347605</v>
       </c>
       <c r="M6" t="n">
-        <v>-329104.1507184241</v>
+        <v>-329104.1507184239</v>
       </c>
       <c r="N6" t="n">
         <v>-310837.4652502456</v>
       </c>
       <c r="O6" t="n">
-        <v>-375905.334308429</v>
+        <v>-375905.3343084286</v>
       </c>
       <c r="P6" t="n">
-        <v>-310837.4652502456</v>
+        <v>-310837.4652502457</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G2" t="n">
         <v>336.1634265485166</v>
@@ -26707,22 +26707,22 @@
         <v>336.1634265485166</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O2" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P2" t="n">
         <v>235.6788355034177</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I4" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592886</v>
+        <v>451.1897323592889</v>
       </c>
       <c r="K4" t="n">
         <v>451.1897323592889</v>
@@ -26820,16 +26820,16 @@
         <v>451.1897323592889</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621949</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621946</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621946</v>
+        <v>368.5270714621951</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621946</v>
+        <v>368.5270714621951</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272907</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>131.5106423454656</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8333568352231</v>
+        <v>22.83335683522304</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.3348363227291</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621946</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272907</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="C11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="H11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="J11" t="n">
-        <v>75.75587581289105</v>
+        <v>156.4561963086021</v>
       </c>
       <c r="K11" t="n">
         <v>5.189869058379898</v>
@@ -28132,31 +28132,31 @@
         <v>13.35405989412967</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.5765519747754</v>
+        <v>88.40663715938585</v>
       </c>
       <c r="R11" t="n">
-        <v>204.6527842030511</v>
+        <v>194.1223785227293</v>
       </c>
       <c r="S11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="12">
@@ -28172,10 +28172,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>151.2525056569802</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>89.1649109427058</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J12" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T12" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U12" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V12" t="n">
-        <v>196.1397587233595</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W12" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X12" t="n">
-        <v>134.6502535423766</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y12" t="n">
-        <v>140.7216252369316</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="13">
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.6527842030511</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E13" t="n">
-        <v>177.7328091308466</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G13" t="n">
         <v>168.695353780268</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7761987305484</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I13" t="n">
-        <v>204.6527842030511</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J13" t="n">
         <v>119.8563324981777</v>
@@ -28275,7 +28275,7 @@
         <v>66.40014143752289</v>
       </c>
       <c r="L13" t="n">
-        <v>31.34583955592039</v>
+        <v>55.74051430089794</v>
       </c>
       <c r="M13" t="n">
         <v>24.36707598317783</v>
@@ -28287,34 +28287,34 @@
         <v>36.71262952723534</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4855967232444</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7630388368461</v>
       </c>
       <c r="R13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="S13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="C14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="G14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="H14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="I14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="J14" t="n">
-        <v>156.4561963086024</v>
+        <v>75.75587581289105</v>
       </c>
       <c r="K14" t="n">
         <v>5.189869058379898</v>
@@ -28369,31 +28369,31 @@
         <v>13.35405989412967</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.40663715938585</v>
+        <v>158.5765519747751</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1223785227293</v>
+        <v>204.652784203051</v>
       </c>
       <c r="S14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="15">
@@ -28424,10 +28424,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I15" t="n">
-        <v>101.9739772848157</v>
+        <v>24.47811512565652</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U15" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V15" t="n">
-        <v>157.9862600183083</v>
+        <v>196.7329747834527</v>
       </c>
       <c r="W15" t="n">
-        <v>184.0419226799176</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X15" t="n">
-        <v>134.6502535423766</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>204.652784203051</v>
       </c>
       <c r="C16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>204.6527842030511</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H16" t="n">
-        <v>204.6527842030511</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I16" t="n">
         <v>164.6899393962033</v>
@@ -28509,7 +28509,7 @@
         <v>119.8563324981777</v>
       </c>
       <c r="K16" t="n">
-        <v>66.40014143752289</v>
+        <v>87.16535672903419</v>
       </c>
       <c r="L16" t="n">
         <v>31.34583955592039</v>
@@ -28518,10 +28518,10 @@
         <v>24.36707598317783</v>
       </c>
       <c r="N16" t="n">
-        <v>98.3532349435927</v>
+        <v>15.69057404649871</v>
       </c>
       <c r="O16" t="n">
-        <v>71.18975792776591</v>
+        <v>119.3752904243292</v>
       </c>
       <c r="P16" t="n">
         <v>57.82293582615036</v>
@@ -28530,28 +28530,28 @@
         <v>126.7630388368461</v>
       </c>
       <c r="R16" t="n">
-        <v>204.6527842030511</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="T16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="U16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="V16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="W16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="X16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.6527842030511</v>
+        <v>204.652784203051</v>
       </c>
     </row>
     <row r="17">
@@ -28615,10 +28615,10 @@
         <v>227.241595838945</v>
       </c>
       <c r="T17" t="n">
-        <v>287.8296546053322</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495746512867</v>
+        <v>315.5662522076331</v>
       </c>
       <c r="V17" t="n">
         <v>336.1634265485166</v>
@@ -28661,7 +28661,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I18" t="n">
-        <v>24.4781151256564</v>
+        <v>92.23978467742499</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.65566072619634</v>
+        <v>51.65566072619646</v>
       </c>
       <c r="S18" t="n">
-        <v>108.8080213336825</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T18" t="n">
-        <v>200.043868445997</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276440809881</v>
+        <v>154.5649831838943</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,7 +28706,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>134.6502535423767</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28819,7 +28819,7 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I20" t="n">
-        <v>240.543842319869</v>
+        <v>321.24416281558</v>
       </c>
       <c r="J20" t="n">
         <v>75.75587581289105</v>
@@ -28855,10 +28855,10 @@
         <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
-        <v>315.5662522076335</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V20" t="n">
-        <v>336.1634265485166</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>336.1634265485166</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>94.08783350057186</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>76.50965417948456</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>66.07547725584595</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H21" t="n">
         <v>125.6730735315877</v>
       </c>
       <c r="I21" t="n">
-        <v>24.4781151256564</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,13 +28928,13 @@
         <v>134.3183216232903</v>
       </c>
       <c r="S21" t="n">
-        <v>176.569690885451</v>
+        <v>108.8080213336826</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9448597913225</v>
+        <v>132.2821988942287</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276440809881</v>
+        <v>170.4624079458704</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29056,7 +29056,7 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I23" t="n">
-        <v>240.543842319869</v>
+        <v>321.2441628155804</v>
       </c>
       <c r="J23" t="n">
         <v>75.75587581289105</v>
@@ -29083,7 +29083,7 @@
         <v>88.40663715938585</v>
       </c>
       <c r="R23" t="n">
-        <v>259.539056079076</v>
+        <v>194.1223785227293</v>
       </c>
       <c r="S23" t="n">
         <v>227.241595838945</v>
@@ -29095,7 +29095,7 @@
         <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
-        <v>336.1634265485166</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>336.1634265485166</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>89.16491094270569</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>76.16077822283435</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H24" t="n">
-        <v>43.01041263449368</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I24" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>119.4173302779648</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S24" t="n">
         <v>191.4706822307765</v>
@@ -29171,19 +29171,19 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276440809881</v>
+        <v>170.4624079458703</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>184.0419226799176</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>134.6502535423766</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>140.7216252369316</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8454786681938</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681954</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="27">
@@ -29357,19 +29357,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>9.752263505150722</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.1407760227504</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8454786681946</v>
+        <v>56.87315180717161</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="28">
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>212.8454786681946</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.8454786681946</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,13 +29445,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8454786681946</v>
+        <v>202.5342342390212</v>
       </c>
       <c r="H28" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J28" t="n">
         <v>119.8563324981777</v>
@@ -29463,7 +29463,7 @@
         <v>31.34583955592039</v>
       </c>
       <c r="M28" t="n">
-        <v>103.1827875543333</v>
+        <v>24.36707598317783</v>
       </c>
       <c r="N28" t="n">
         <v>15.69057404649871</v>
@@ -29472,7 +29472,7 @@
         <v>36.71262952723534</v>
       </c>
       <c r="P28" t="n">
-        <v>57.82293582615036</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7630388368461</v>
@@ -29481,25 +29481,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681956</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="30">
@@ -29609,10 +29609,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.86424478979236</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5350052961525</v>
+        <v>116.8680113432385</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29685,13 +29685,13 @@
         <v>168.695353780268</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7761987305484</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I31" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K31" t="n">
         <v>66.40014143752289</v>
@@ -29700,7 +29700,7 @@
         <v>31.34583955592039</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36707598317783</v>
+        <v>53.6627840308196</v>
       </c>
       <c r="N31" t="n">
         <v>15.69057404649871</v>
@@ -29709,34 +29709,34 @@
         <v>36.71262952723534</v>
       </c>
       <c r="P31" t="n">
-        <v>208.7574585675899</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8454786681946</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R31" t="n">
         <v>203.1862066784475</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8454786681947</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>118.7182297999496</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042504</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S33" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3.683199737445534</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="34">
@@ -29922,10 +29922,10 @@
         <v>168.695353780268</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8454786681946</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8454786681946</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J34" t="n">
         <v>119.8563324981777</v>
@@ -29934,7 +29934,7 @@
         <v>66.40014143752289</v>
       </c>
       <c r="L34" t="n">
-        <v>173.137982919071</v>
+        <v>31.34583955592039</v>
       </c>
       <c r="M34" t="n">
         <v>24.36707598317783</v>
@@ -29946,34 +29946,34 @@
         <v>36.71262952723534</v>
       </c>
       <c r="P34" t="n">
-        <v>57.82293582615036</v>
+        <v>199.0981865778431</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1862066784475</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6788355034177</v>
+        <v>152.5224587767574</v>
       </c>
       <c r="K35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>152.522458776756</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7381381529399</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S36" t="n">
         <v>191.4706822307765</v>
@@ -30119,19 +30119,19 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
-        <v>50.08453620005392</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>197.6399760303316</v>
       </c>
       <c r="W36" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30159,25 +30159,25 @@
         <v>168.695353780268</v>
       </c>
       <c r="H37" t="n">
-        <v>235.6788355034177</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I37" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8563324981777</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K37" t="n">
         <v>66.40014143752289</v>
       </c>
       <c r="L37" t="n">
-        <v>31.34583955592039</v>
+        <v>34.93918904856556</v>
       </c>
       <c r="M37" t="n">
         <v>24.36707598317783</v>
       </c>
       <c r="N37" t="n">
-        <v>65.20378977151417</v>
+        <v>15.69057404649871</v>
       </c>
       <c r="O37" t="n">
         <v>36.71262952723534</v>
@@ -30198,13 +30198,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J38" t="n">
-        <v>235.6788355034177</v>
+        <v>152.5224587767577</v>
       </c>
       <c r="K38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L38" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N38" t="n">
-        <v>114.0213168228325</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P38" t="n">
-        <v>13.35405989412967</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.40663715938585</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1223785227293</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S38" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="39">
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7381381529399</v>
@@ -30320,7 +30320,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I39" t="n">
-        <v>70.06735803342249</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J39" t="n">
         <v>51.86424478979236</v>
@@ -30356,16 +30356,16 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>209.9345253997235</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30387,10 +30387,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>164.3400404251391</v>
       </c>
       <c r="G40" t="n">
         <v>168.695353780268</v>
@@ -30423,7 +30423,7 @@
         <v>57.82293582615036</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.1761970435379</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R40" t="n">
         <v>203.1862066784475</v>
@@ -30435,13 +30435,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W40" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N41" t="n">
-        <v>235.6788355034178</v>
+        <v>114.0213168228348</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P41" t="n">
-        <v>235.6788355034178</v>
+        <v>13.35405989412967</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.5224587767542</v>
+        <v>88.40663715938585</v>
       </c>
       <c r="R41" t="n">
-        <v>235.6788355034178</v>
+        <v>194.1223785227293</v>
       </c>
       <c r="S41" t="n">
-        <v>235.6788355034178</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T41" t="n">
-        <v>235.6788355034178</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="42">
@@ -30545,10 +30545,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7381381529399</v>
@@ -30593,19 +30593,19 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V42" t="n">
-        <v>235.6788355034178</v>
+        <v>121.2114213788668</v>
       </c>
       <c r="W42" t="n">
-        <v>235.6788355034178</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.8890474657848</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>195.3768482171504</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30636,10 +30636,10 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I43" t="n">
-        <v>168.2832888888478</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J43" t="n">
-        <v>235.6788355034178</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K43" t="n">
         <v>66.40014143752289</v>
@@ -30672,13 +30672,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U43" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V43" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W43" t="n">
-        <v>235.6788355034178</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,10 +30718,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034177</v>
+        <v>147.3325897183767</v>
       </c>
       <c r="K44" t="n">
-        <v>235.6788355034177</v>
+        <v>5.189869058379898</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,10 +30730,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="N44" t="n">
-        <v>152.5224587767543</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P44" t="n">
         <v>235.6788355034177</v>
@@ -30782,10 +30782,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7381381529399</v>
@@ -30797,7 +30797,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86424478979236</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="V45" t="n">
-        <v>235.6788355034177</v>
+        <v>113.8620483885992</v>
       </c>
       <c r="W45" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="X45" t="n">
-        <v>56.93331598322382</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>227.1301363899836</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30870,7 +30870,7 @@
         <v>168.695353780268</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7761987305484</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I46" t="n">
         <v>164.6899393962033</v>
@@ -30894,7 +30894,7 @@
         <v>36.71262952723534</v>
       </c>
       <c r="P46" t="n">
-        <v>177.2387883240349</v>
+        <v>57.82293582615036</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7630388368461</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>80.70032049571104</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>49.0999554125584</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N11" t="n">
         <v>78.24522996402474</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.16991481538955</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.53040568032178</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39096310256608</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="M12" t="n">
-        <v>79.32275540630231</v>
+        <v>39.93179230373613</v>
       </c>
       <c r="N12" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O12" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P12" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.03586353808296</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>38.19560323107871</v>
+        <v>38.19560323107865</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.47013395234029</v>
       </c>
       <c r="E13" t="n">
-        <v>36.05666791862156</v>
+        <v>62.97664299082601</v>
       </c>
       <c r="F13" t="n">
-        <v>65.72590198460441</v>
+        <v>65.72590198460435</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.8765854725026</v>
       </c>
       <c r="I13" t="n">
-        <v>39.96284480684773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>24.39467474497756</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.466577524603592</v>
+        <v>1.466577524603535</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.70032049571137</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>49.0999554125584</v>
       </c>
       <c r="M14" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N14" t="n">
         <v>78.24522996402474</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>70.16991481538926</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.53040568032173</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39096310256608</v>
       </c>
       <c r="L15" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="M15" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>39.93179230373613</v>
       </c>
       <c r="O15" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P15" t="n">
-        <v>79.32275540630231</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>27.03586353808291</v>
       </c>
       <c r="C16" t="n">
-        <v>38.19560323107871</v>
+        <v>38.19560323107865</v>
       </c>
       <c r="D16" t="n">
-        <v>59.47013395234035</v>
+        <v>59.47013395234029</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.97664299082601</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.95743042278305</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.87658547250266</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20.76521529151129</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,10 +35814,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.47712840053057</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.466577524603592</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>49.0999554125584</v>
       </c>
       <c r="M17" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N17" t="n">
         <v>78.24522996402474</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65.41667755634673</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>65.41667755634639</v>
       </c>
       <c r="V17" t="n">
         <v>15.2836429393646</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>82.66266089709399</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P18" t="n">
-        <v>79.32275540630231</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.70032049571104</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>49.0999554125584</v>
       </c>
       <c r="M20" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N20" t="n">
         <v>78.24522996402474</v>
@@ -36151,10 +36151,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>65.41667755634673</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>15.2836429393646</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="M21" t="n">
-        <v>79.32275540630231</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>82.66266089709399</v>
+        <v>79.32275540630221</v>
       </c>
       <c r="O21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.70032049571137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.41667755634678</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>15.28364293936454</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.39096310256608</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>82.66266089709399</v>
@@ -36446,7 +36446,7 @@
         <v>82.66266089709399</v>
       </c>
       <c r="N24" t="n">
-        <v>39.93179230373622</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098147</v>
+        <v>207.6556096098146</v>
       </c>
       <c r="L26" t="n">
-        <v>261.945434080753</v>
+        <v>261.9454340807529</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6462756582019</v>
+        <v>296.6462756582026</v>
       </c>
       <c r="N26" t="n">
         <v>291.0907086322193</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963903</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4914187740649</v>
+        <v>199.4914187740648</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.7231001454653</v>
+        <v>18.72310014546615</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.38829769622222</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.66282841748387</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,13 +36741,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.15012488792657</v>
+        <v>33.83888045875316</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15553927199119</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>78.81571157115548</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0225428420441</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6556096098147</v>
+        <v>207.6556096098146</v>
       </c>
       <c r="L29" t="n">
-        <v>261.945434080753</v>
+        <v>261.9454340807529</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6462756582027</v>
+        <v>296.6462756582026</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322204</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963903</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4914187740649</v>
+        <v>199.4914187740648</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546531</v>
+        <v>18.72310014546525</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.66282841748381</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36981,13 +36981,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.06927993764612</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.98914617001678</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>29.29570804764177</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.9345227414396</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08243983134851</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>137.0896028553035</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6556096098147</v>
+        <v>207.6556096098146</v>
       </c>
       <c r="L32" t="n">
-        <v>261.945434080753</v>
+        <v>261.9454340807529</v>
       </c>
       <c r="M32" t="n">
         <v>296.6462756582027</v>
@@ -37084,13 +37084,13 @@
         <v>249.4480499963904</v>
       </c>
       <c r="P32" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7231001454653</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06927993764618</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15553927199125</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>141.7921433631507</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>141.2752507516927</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.08243983134848</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.659271989747081</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9229596905266</v>
+        <v>76.76658296386636</v>
       </c>
       <c r="K35" t="n">
-        <v>230.4889664450378</v>
+        <v>230.4889664450377</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159761</v>
+        <v>284.778790915976</v>
       </c>
       <c r="M35" t="n">
         <v>83.80079699000814</v>
       </c>
       <c r="N35" t="n">
-        <v>230.7676887407808</v>
+        <v>313.9240654674423</v>
       </c>
       <c r="O35" t="n">
         <v>36.60257132819579</v>
       </c>
       <c r="P35" t="n">
-        <v>222.324775609288</v>
+        <v>222.3247756092879</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440317</v>
       </c>
       <c r="R35" t="n">
-        <v>41.5564569806884</v>
+        <v>41.55645698068832</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472663</v>
+        <v>8.437239664472578</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443213</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37455,25 +37455,25 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>69.90263677286927</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>115.8225030052399</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.593349492645173</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>49.51321572501546</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9229596905267</v>
+        <v>76.76658296386665</v>
       </c>
       <c r="K38" t="n">
-        <v>230.4889664450378</v>
+        <v>230.4889664450377</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159761</v>
+        <v>49.0999554125584</v>
       </c>
       <c r="M38" t="n">
-        <v>319.4796324934259</v>
+        <v>319.4796324934257</v>
       </c>
       <c r="N38" t="n">
-        <v>192.2665467868572</v>
+        <v>78.24522996402474</v>
       </c>
       <c r="O38" t="n">
-        <v>272.2814068316135</v>
+        <v>272.2814068316134</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>222.3247756092879</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>147.2721983440317</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.55645698068832</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.437239664472578</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.26585845443213</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>94.00269429119274</v>
+        <v>94.0026942911926</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>25.41315820669242</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.41315820669185</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9229596905267</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450379</v>
+        <v>230.4889664450377</v>
       </c>
       <c r="L41" t="n">
-        <v>284.7787909159762</v>
+        <v>284.778790915976</v>
       </c>
       <c r="M41" t="n">
-        <v>83.80079699000814</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674425</v>
+        <v>192.2665467868595</v>
       </c>
       <c r="O41" t="n">
-        <v>36.60257132819579</v>
+        <v>272.2814068316134</v>
       </c>
       <c r="P41" t="n">
-        <v>222.3247756092881</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.11582161736835</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.55645698068849</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472749</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.2658584544323</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>28.91966724517802</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.49618525270691</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.593349492644458</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>115.82250300524</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9229596905267</v>
+        <v>71.57671390548566</v>
       </c>
       <c r="K44" t="n">
-        <v>230.4889664450378</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>49.0999554125584</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934259</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N44" t="n">
-        <v>230.7676887407791</v>
+        <v>313.9240654674424</v>
       </c>
       <c r="O44" t="n">
-        <v>36.60257132819579</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P44" t="n">
-        <v>222.3247756092881</v>
+        <v>222.324775609288</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440319</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068846</v>
+        <v>41.5564569806884</v>
       </c>
       <c r="S44" t="n">
-        <v>8.43723966447272</v>
+        <v>8.437239664472663</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443227</v>
+        <v>13.26585845443222</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>49.51321572501548</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>69.90263677286927</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>119.4158524978846</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
